--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/21.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/21.xlsx
@@ -479,13 +479,13 @@
         <v>0.3109856642709576</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627358580133605</v>
+        <v>-1.625627946109734</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02069295651833972</v>
+        <v>-0.002566324037120546</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.228834720762337</v>
+        <v>-0.2242181226795621</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.3041599827393703</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.652398076315256</v>
+        <v>-1.649399569889178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02232836238537113</v>
+        <v>-0.007009780016552387</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2040990102710967</v>
+        <v>-0.2036929133378011</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.3039854716842438</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705235537188638</v>
+        <v>-1.697854174519299</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01731488320370799</v>
+        <v>-0.04395987888908603</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2139539439895603</v>
+        <v>-0.2132723937100371</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.3133158300418366</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817823550916155</v>
+        <v>-1.812153147031669</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02216915817379931</v>
+        <v>-0.04873387888399102</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2329743910513578</v>
+        <v>-0.2278966053660418</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.3335175675456796</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782016189925686</v>
+        <v>-1.766408216318868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006084725305429414</v>
+        <v>-0.02629151425248581</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2279989166089263</v>
+        <v>-0.223887578664089</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.3631054308226229</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.601061442674034</v>
+        <v>-1.596804507960476</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06399737058356424</v>
+        <v>0.03737283714676311</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2117078187034642</v>
+        <v>-0.2109334012957843</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.399154146903256</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.340849323597968</v>
+        <v>-1.33962945877896</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1017486451888399</v>
+        <v>0.08103455355252288</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2013712351338826</v>
+        <v>-0.1987205869336122</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.4350884665506243</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9349208103483699</v>
+        <v>-0.9442216893361357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1970633730792031</v>
+        <v>0.1724315478499686</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1773942018591092</v>
+        <v>-0.1675628784274651</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.4634984154202598</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.496156684209318</v>
+        <v>-0.4949635777153721</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2093344261488632</v>
+        <v>0.1908223872632459</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1309952662014076</v>
+        <v>-0.1269594811743926</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.4779219825082009</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.02377465767752601</v>
+        <v>-0.01921000222575402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1840556790607742</v>
+        <v>0.1691890684600892</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06604179314181338</v>
+        <v>-0.06539959334032271</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4754610831448318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5249410001608642</v>
+        <v>0.5342025286705974</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1454040655181145</v>
+        <v>0.1311292861070386</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02691977616220524</v>
+        <v>0.02855045997187275</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4576605991651856</v>
       </c>
       <c r="E13" t="n">
-        <v>1.090467182214746</v>
+        <v>1.100093883160621</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0268300570722911</v>
+        <v>0.01820915434492723</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1305280108027017</v>
+        <v>0.1328528370448628</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4295735597313519</v>
       </c>
       <c r="E14" t="n">
-        <v>1.692241450613061</v>
+        <v>1.70989722309669</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1763915516788407</v>
+        <v>-0.1890671276626751</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2497867175662909</v>
+        <v>0.2505863192799117</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.398170374043536</v>
       </c>
       <c r="E15" t="n">
-        <v>2.331579685341217</v>
+        <v>2.346602123834911</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4503070812249503</v>
+        <v>-0.4557830937479554</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3730686172039247</v>
+        <v>0.3708744345488315</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3690479217899258</v>
       </c>
       <c r="E16" t="n">
-        <v>2.95112935167638</v>
+        <v>2.976400228668863</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6866444782691272</v>
+        <v>-0.6869136355388696</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5208076259483285</v>
+        <v>0.5113776773926161</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3476870205686317</v>
       </c>
       <c r="E17" t="n">
-        <v>3.548146934290125</v>
+        <v>3.573139209898137</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9302971291795492</v>
+        <v>-0.9230133556957303</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6823712446351163</v>
+        <v>0.6728311147409128</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3378642202552236</v>
       </c>
       <c r="E18" t="n">
-        <v>4.113562935005516</v>
+        <v>4.132770690342747</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.153478087398334</v>
+        <v>-1.147555840454441</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8165359124774231</v>
+        <v>0.8080645415665828</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3402961532849508</v>
       </c>
       <c r="E19" t="n">
-        <v>4.585819040007603</v>
+        <v>4.602557159343514</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.368895983310864</v>
+        <v>-1.364461971446161</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9917667391944648</v>
+        <v>0.9837376676567099</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.354673460155098</v>
       </c>
       <c r="E20" t="n">
-        <v>4.949699206450775</v>
+        <v>4.96396139370888</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.543087170398287</v>
+        <v>-1.551544375137036</v>
       </c>
       <c r="G20" t="n">
-        <v>1.127651809936353</v>
+        <v>1.116597473647458</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3791895589267191</v>
       </c>
       <c r="E21" t="n">
-        <v>5.287817401935619</v>
+        <v>5.295525373572628</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.756818504822344</v>
+        <v>-1.769963138504326</v>
       </c>
       <c r="G21" t="n">
-        <v>1.260284957173634</v>
+        <v>1.251944229849862</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4115619284757759</v>
       </c>
       <c r="E22" t="n">
-        <v>5.580992629449963</v>
+        <v>5.583012095982592</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.909283505978453</v>
+        <v>-1.936232287354242</v>
       </c>
       <c r="G22" t="n">
-        <v>1.367732224450983</v>
+        <v>1.358248759245146</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.449473156803241</v>
       </c>
       <c r="E23" t="n">
-        <v>5.743052064159961</v>
+        <v>5.743670653674632</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.037707726085376</v>
+        <v>-2.073655174777641</v>
       </c>
       <c r="G23" t="n">
-        <v>1.475642253349994</v>
+        <v>1.464465143569638</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4908177796519214</v>
       </c>
       <c r="E24" t="n">
-        <v>5.900143894523133</v>
+        <v>5.901521161254271</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.130253754341371</v>
+        <v>-2.166295644180914</v>
       </c>
       <c r="G24" t="n">
-        <v>1.517575696760566</v>
+        <v>1.507651506200765</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5334213297801831</v>
       </c>
       <c r="E25" t="n">
-        <v>5.994928177969618</v>
+        <v>5.987251686715035</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.163657588133614</v>
+        <v>-2.20548714628218</v>
       </c>
       <c r="G25" t="n">
-        <v>1.590057703277341</v>
+        <v>1.578375333359048</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.5769799301586691</v>
       </c>
       <c r="E26" t="n">
-        <v>6.053305399140418</v>
+        <v>6.041317669512591</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.187260791867079</v>
+        <v>-2.225220624005927</v>
       </c>
       <c r="G26" t="n">
-        <v>1.658012830801256</v>
+        <v>1.636694315822359</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6202120648479451</v>
       </c>
       <c r="E27" t="n">
-        <v>6.042372262323863</v>
+        <v>6.024407982092458</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.185413680428232</v>
+        <v>-2.212698514886419</v>
       </c>
       <c r="G27" t="n">
-        <v>1.631753469800597</v>
+        <v>1.613126527519124</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6627001783894236</v>
       </c>
       <c r="E28" t="n">
-        <v>5.982219547584236</v>
+        <v>5.969871367577633</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.201262478960609</v>
+        <v>-2.222258320019639</v>
       </c>
       <c r="G28" t="n">
-        <v>1.62645689545742</v>
+        <v>1.602220149027632</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7035586886114085</v>
       </c>
       <c r="E29" t="n">
-        <v>5.882626635722178</v>
+        <v>5.872104317896283</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.154860395264665</v>
+        <v>-2.16303506357114</v>
       </c>
       <c r="G29" t="n">
-        <v>1.600413175076379</v>
+        <v>1.571246600758677</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7419483682224611</v>
       </c>
       <c r="E30" t="n">
-        <v>5.752878665534241</v>
+        <v>5.73737615120855</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.155106729257148</v>
+        <v>-2.150868682773046</v>
       </c>
       <c r="G30" t="n">
-        <v>1.534924535515542</v>
+        <v>1.502945189028076</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.776830446772746</v>
       </c>
       <c r="E31" t="n">
-        <v>5.557061242729707</v>
+        <v>5.550028525295736</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.102922486319106</v>
+        <v>-2.096156565126195</v>
       </c>
       <c r="G31" t="n">
-        <v>1.472446994533754</v>
+        <v>1.437986993911118</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8075386662835373</v>
       </c>
       <c r="E32" t="n">
-        <v>5.379423740776197</v>
+        <v>5.36411955285979</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.027700112512146</v>
+        <v>-2.013090854037794</v>
       </c>
       <c r="G32" t="n">
-        <v>1.430098010075159</v>
+        <v>1.396966481590901</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.832734692104398</v>
       </c>
       <c r="E33" t="n">
-        <v>5.118150732812374</v>
+        <v>5.10706019408369</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.992551478523941</v>
+        <v>-1.968021177528031</v>
       </c>
       <c r="G33" t="n">
-        <v>1.371191918479602</v>
+        <v>1.337246622109631</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8521488754992866</v>
       </c>
       <c r="E34" t="n">
-        <v>4.898537288932017</v>
+        <v>4.879628597227832</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.925238550801517</v>
+        <v>-1.894091073419659</v>
       </c>
       <c r="G34" t="n">
-        <v>1.275680438199076</v>
+        <v>1.24252687344712</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8648269000140767</v>
       </c>
       <c r="E35" t="n">
-        <v>4.612610419471262</v>
+        <v>4.588395709309173</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.888266415661285</v>
+        <v>-1.857174815958233</v>
       </c>
       <c r="G35" t="n">
-        <v>1.191435786788821</v>
+        <v>1.156887641095392</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8710786878379383</v>
       </c>
       <c r="E36" t="n">
-        <v>4.245073806609309</v>
+        <v>4.218296593317742</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.851190395259048</v>
+        <v>-1.813252599387898</v>
       </c>
       <c r="G36" t="n">
-        <v>1.142304353936541</v>
+        <v>1.108355909528328</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8708488870581991</v>
       </c>
       <c r="E37" t="n">
-        <v>3.935799511522301</v>
+        <v>3.915449018303004</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.811116655440293</v>
+        <v>-1.779393874069599</v>
       </c>
       <c r="G37" t="n">
-        <v>1.059805289731808</v>
+        <v>1.025379917529841</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8640634369108841</v>
       </c>
       <c r="E38" t="n">
-        <v>3.654687566553604</v>
+        <v>3.631560503604333</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.734197489020571</v>
+        <v>-1.705744732374379</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9842885743491652</v>
+        <v>0.9531497540724737</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.852375143358961</v>
       </c>
       <c r="E39" t="n">
-        <v>3.314826931901481</v>
+        <v>3.291799032156852</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.6949280729728</v>
+        <v>-1.672694265874868</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9010150927367523</v>
+        <v>0.8721444340138551</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8359245737556794</v>
       </c>
       <c r="E40" t="n">
-        <v>2.988894792453748</v>
+        <v>2.965007478268888</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.654707949375765</v>
+        <v>-1.637385868945851</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8407081241232377</v>
+        <v>0.8131659375387184</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8158850202400051</v>
       </c>
       <c r="E41" t="n">
-        <v>2.669213082936699</v>
+        <v>2.650389388265065</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.633914369773822</v>
+        <v>-1.612614743024381</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7864957575473994</v>
+        <v>0.7621110533202092</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7931348466318389</v>
       </c>
       <c r="E42" t="n">
-        <v>2.335281778314516</v>
+        <v>2.322237881856297</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.581917435111214</v>
+        <v>-1.565220240272457</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7264107256299883</v>
+        <v>0.700277286159033</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7692701007064545</v>
       </c>
       <c r="E43" t="n">
-        <v>2.080270218415228</v>
+        <v>2.072384382617511</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.529598613538301</v>
+        <v>-1.514584045140213</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6506720735512418</v>
+        <v>0.6268146657296872</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7460023865209249</v>
       </c>
       <c r="E44" t="n">
-        <v>1.826810641369542</v>
+        <v>1.819138872172322</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.509534591799081</v>
+        <v>-1.496794481031273</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5640758375737631</v>
+        <v>0.5430910146485823</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7238974286835845</v>
       </c>
       <c r="E45" t="n">
-        <v>1.601293051765186</v>
+        <v>1.59705107023328</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.428973145132669</v>
+        <v>-1.425013700033037</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5088608208176564</v>
+        <v>0.4928136958759958</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7022572466314663</v>
       </c>
       <c r="E46" t="n">
-        <v>1.390505133097961</v>
+        <v>1.38549345621574</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.368438730756127</v>
+        <v>-1.365991918032065</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4466052165319715</v>
+        <v>0.4312270497168638</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6803885080157647</v>
       </c>
       <c r="E47" t="n">
-        <v>1.237949625842377</v>
+        <v>1.235321013909805</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.321478657281681</v>
+        <v>-1.324950943463271</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3830652126433053</v>
+        <v>0.3674981635336416</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6569347151109195</v>
       </c>
       <c r="E48" t="n">
-        <v>1.028987569355862</v>
+        <v>1.031614607269313</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.242483359640964</v>
+        <v>-1.247301432171265</v>
       </c>
       <c r="G48" t="n">
-        <v>0.297485793018187</v>
+        <v>0.2887940594303646</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6317480690378252</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8720830472681244</v>
+        <v>0.8750327591014418</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.171439219591496</v>
+        <v>-1.178750538409938</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2523130182559785</v>
+        <v>0.2483401939938156</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6051705700030925</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7722697727290838</v>
+        <v>0.7741664657702512</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.098954065036479</v>
+        <v>-1.107033505186115</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2147018313524986</v>
+        <v>0.206935621008001</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5781968532933426</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6374975335059551</v>
+        <v>0.6445444171120183</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.066217615351667</v>
+        <v>-1.069753649307669</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1731634667413735</v>
+        <v>0.1671302514494279</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5507845508801549</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4640595145680749</v>
+        <v>0.4767886072020335</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.0297601844641</v>
+        <v>-1.039651320622354</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1305075485541248</v>
+        <v>0.1272713652407306</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5235702627906621</v>
       </c>
       <c r="E53" t="n">
-        <v>0.402708971277138</v>
+        <v>0.4131730503955449</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.026519279093342</v>
+        <v>-1.036353750563229</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1030991535949159</v>
+        <v>0.09568552353358968</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4976901895808512</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2460924946885982</v>
+        <v>0.2532338194419395</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9660667137111073</v>
+        <v>-0.9812544242125376</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05601551961944845</v>
+        <v>0.05194668019088618</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.473166611557798</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1274271931337393</v>
+        <v>0.1341214964566312</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9399230431158635</v>
+        <v>-0.9598737354783498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02892822456098492</v>
+        <v>0.02463272637895534</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4498682572587491</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03852029708619131</v>
+        <v>0.04375391066451609</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9238830012602489</v>
+        <v>-0.9451188802352771</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.007255326999475295</v>
+        <v>-0.007102647144709128</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.4277906261572682</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07446279544077206</v>
+        <v>-0.06799672489046883</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9243323837193802</v>
+        <v>-0.9479104031469039</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05039289503784194</v>
+        <v>-0.04849620199667461</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.4060738973670606</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1280770347505161</v>
+        <v>-0.1238256091038829</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.905072685751145</v>
+        <v>-0.9328509752038595</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07998445451829488</v>
+        <v>-0.07826247759959193</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3851213713069176</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2074406528656181</v>
+        <v>-0.2059705190063232</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9121376705771032</v>
+        <v>-0.9438203144602041</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1058062382032327</v>
+        <v>-0.1091541768742392</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3642295156705174</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2988234809909721</v>
+        <v>-0.2961098720258497</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9084080322691812</v>
+        <v>-0.9416127526425798</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.124176615367933</v>
+        <v>-0.1300713169772041</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3437767723392686</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3913301587689348</v>
+        <v>-0.3928947337755077</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8901076989553787</v>
+        <v>-0.9223105561580695</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1449505197308595</v>
+        <v>-0.1541002928829804</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3235994173821279</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4983209605011065</v>
+        <v>-0.4970963736247345</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8797813465100855</v>
+        <v>-0.9165535812219122</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1742996802666321</v>
+        <v>-0.1796088467627793</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.303004343433356</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5630178684439286</v>
+        <v>-0.5691659871317292</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8880331417535045</v>
+        <v>-0.9295353039248396</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1950358081706473</v>
+        <v>-0.2031278404732542</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.2821540200563501</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6818075175093703</v>
+        <v>-0.6824937898462573</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9093429996272338</v>
+        <v>-0.9567075960158534</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.231582958148128</v>
+        <v>-0.2372824813863578</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.2603490329971894</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8028244036314524</v>
+        <v>-0.8066445480388491</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9448528710037772</v>
+        <v>-0.994916123175867</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2768848024782831</v>
+        <v>-0.2814604760639042</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2378443342950599</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9004812719743109</v>
+        <v>-0.8986908252238314</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9742712883808872</v>
+        <v>-1.022905331190836</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3024736313332684</v>
+        <v>-0.3079165894547262</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.214426621425594</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.942199861774825</v>
+        <v>-0.9444743194051045</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.013910598922163</v>
+        <v>-1.062394322906028</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.341145707124505</v>
+        <v>-0.3457213807101261</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1903376587090356</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9883902398989544</v>
+        <v>-0.9873482392406533</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.022625942796805</v>
+        <v>-1.072415315641788</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3639296339053325</v>
+        <v>-0.3696637855642309</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1656564292655922</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.051593403695662</v>
+        <v>-1.050354650647199</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.069958271793438</v>
+        <v>-1.118928367685784</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3832585887149049</v>
+        <v>-0.3871479899636389</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.1409576948901996</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.076766691502624</v>
+        <v>-1.076608502580933</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.111431314611029</v>
+        <v>-1.160809081455792</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3957704667101241</v>
+        <v>-0.3955737143199615</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1174885845205003</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.094516118123971</v>
+        <v>-1.0871693838753</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.120202536164477</v>
+        <v>-1.17137074975972</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4255934070014082</v>
+        <v>-0.4247875092113023</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.09526902379375389</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.11629739472453</v>
+        <v>-1.110985867199701</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.161150643605115</v>
+        <v>-1.207074225488183</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4025104165875336</v>
+        <v>-0.4085735382427839</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.07565753764096199</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.089556383872753</v>
+        <v>-1.075085639081075</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.187469030322823</v>
+        <v>-1.229923474062545</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4085247436500236</v>
+        <v>-0.4161886427516366</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.05888773153226776</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.091793852053682</v>
+        <v>-1.075395720847971</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.209730382755378</v>
+        <v>-1.246710387991217</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4132672632625025</v>
+        <v>-0.4159478178260776</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.04505876875086589</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.047992834955687</v>
+        <v>-1.027263003128157</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.226896635292284</v>
+        <v>-1.266271510621181</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.419719167640714</v>
+        <v>-0.4182537558387831</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.03429671632815443</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9591276504148533</v>
+        <v>-0.9440398901276255</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.239857108737074</v>
+        <v>-1.280770587757042</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3928475132018687</v>
+        <v>-0.3923076246432626</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.02717156338559415</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.897323002607421</v>
+        <v>-0.8848551971475983</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.250487246872778</v>
+        <v>-1.294530662915453</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.375684408703206</v>
+        <v>-0.3736224436543021</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0233567895002599</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7505276183262369</v>
+        <v>-0.7365046819745692</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.236384822555484</v>
+        <v>-1.280605315749306</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3311569817807308</v>
+        <v>-0.3302094222697078</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.0229308782234214</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6374532326902381</v>
+        <v>-0.6227251357722277</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.257730095859443</v>
+        <v>-1.300729937224696</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3169797915551755</v>
+        <v>-0.3136885175725358</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.02556106313741973</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.48201254838531</v>
+        <v>-0.4670751069241665</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.254864594049115</v>
+        <v>-1.295804044384585</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2945846474973093</v>
+        <v>-0.2929523896685206</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.03095634209863814</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.33784813706538</v>
+        <v>-0.3216939788234711</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.273194046716661</v>
+        <v>-1.306933933591302</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2709885268498907</v>
+        <v>-0.2672455093794377</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03904076432879008</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1780301055841147</v>
+        <v>-0.1595558431574085</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.284964561705748</v>
+        <v>-1.316094724877272</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2461017105230056</v>
+        <v>-0.2404257975715953</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.04939200084441555</v>
       </c>
       <c r="E83" t="n">
-        <v>0.01567340954051183</v>
+        <v>0.03429248172637766</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.266748438414935</v>
+        <v>-1.29330450201996</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1831645559577976</v>
+        <v>-0.1809546331114914</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.06169009478074566</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1791793678229847</v>
+        <v>0.1975072464714099</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.265820554142928</v>
+        <v>-1.288056722269543</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1595605652147724</v>
+        <v>-0.158134503890874</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07486536551702247</v>
       </c>
       <c r="E85" t="n">
-        <v>0.348173930781433</v>
+        <v>0.3683308196488096</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.188493716770789</v>
+        <v>-1.202049956452992</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1151810960896996</v>
+        <v>-0.1131820918056477</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08770146103541035</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5480255645938601</v>
+        <v>0.5716893680634946</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.118797724098716</v>
+        <v>-1.128302438562691</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06364928407743634</v>
+        <v>-0.05790726232293143</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.09812469030800336</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7355620728012305</v>
+        <v>0.7602820431012578</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.038846209841809</v>
+        <v>-1.041072659888888</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01900380572086363</v>
+        <v>-0.0139055577869707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1043442428056076</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8906312885935317</v>
+        <v>0.9191808474156835</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9149173883453202</v>
+        <v>-0.9129506514532549</v>
       </c>
       <c r="G88" t="n">
-        <v>0.005173127982314936</v>
+        <v>0.01213658857494918</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1044657269032986</v>
       </c>
       <c r="E89" t="n">
-        <v>1.029615602985261</v>
+        <v>1.056592716705234</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8115365994678516</v>
+        <v>-0.8052830214989241</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03974960601992714</v>
+        <v>0.03933563899102507</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.09706600914800617</v>
       </c>
       <c r="E90" t="n">
-        <v>1.127851710364758</v>
+        <v>1.161058791766839</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6671187710693922</v>
+        <v>-0.6650520839631244</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05709057467929683</v>
+        <v>0.06056915693737134</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08143573857815012</v>
       </c>
       <c r="E91" t="n">
-        <v>1.226339660803664</v>
+        <v>1.256315280949714</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4940349064338047</v>
+        <v>-0.4882110356849921</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03104213224089174</v>
+        <v>0.03404378670521215</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05872823710585247</v>
       </c>
       <c r="E92" t="n">
-        <v>1.261520562183855</v>
+        <v>1.291703952853917</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.346673662278513</v>
+        <v>-0.3396063164238729</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0577280524234236</v>
+        <v>0.06062109956837426</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03094703721986841</v>
       </c>
       <c r="E93" t="n">
-        <v>1.289396440822091</v>
+        <v>1.322841199111487</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2393113920337144</v>
+        <v>-0.2292959083648781</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04382474152497463</v>
+        <v>0.04667843819189278</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.0007332115652317656</v>
       </c>
       <c r="E94" t="n">
-        <v>1.23852099478341</v>
+        <v>1.276160514031073</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1133316236221713</v>
+        <v>-0.0967509061983898</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06176068941219597</v>
+        <v>0.06097840190890952</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03501007713837209</v>
       </c>
       <c r="E95" t="n">
-        <v>1.208405286935564</v>
+        <v>1.241713105561407</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.02298292605951177</v>
+        <v>-0.0100256006529645</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01827054109065796</v>
+        <v>0.01765982167159329</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.0712817718588987</v>
       </c>
       <c r="E96" t="n">
-        <v>1.120022539255409</v>
+        <v>1.1538954307458</v>
       </c>
       <c r="F96" t="n">
-        <v>0.05528832278540753</v>
+        <v>0.064812712488398</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02313717993339923</v>
+        <v>-0.02222267482392353</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1094066409376299</v>
       </c>
       <c r="E97" t="n">
-        <v>1.060014634274941</v>
+        <v>1.089861184853045</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1030598031168834</v>
+        <v>0.1121780958865783</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.009953195773384674</v>
+        <v>-0.01682221521874087</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1483616204987464</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9579064398570444</v>
+        <v>0.9904965057635751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.101136351750654</v>
+        <v>0.1105647262872451</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06278986963720616</v>
+        <v>-0.06179981160990803</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1855872968847452</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9006026997269715</v>
+        <v>0.9214442869121139</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1155307566149488</v>
+        <v>0.1265252801772341</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05424451982766473</v>
+        <v>-0.05797179710690475</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2195911346444293</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8490803318294361</v>
+        <v>0.8645608098874283</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1087420121447789</v>
+        <v>0.1160785152691614</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06253960059691935</v>
+        <v>-0.06395306976784737</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.247242712611976</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7689926649185358</v>
+        <v>0.7818586972160476</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1035902475607617</v>
+        <v>0.1104671371017244</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06123946080272499</v>
+        <v>-0.06531459630777246</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2680118442829537</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7456908858468004</v>
+        <v>0.7512928198995096</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1043331845860157</v>
+        <v>0.1135915650575063</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06148185974740529</v>
+        <v>-0.0649399797569029</v>
       </c>
     </row>
   </sheetData>
